--- a/ApolloQA/Data/RatingManual/GA/VA00048.AutoCoverageTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00048.AutoCoverageTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00048.AutoCoverageTypeFactors" sheetId="1" r:id="R7241c0f23c81441d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00048.AutoCoverageTypeFactors" sheetId="1" r:id="R812c3d53b12d4dba"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,151 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Auto Coverage Type</x:v>
+        <x:v>Insurance Score Tier</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Auto Coverage Type Factor</x:v>
+        <x:v>Insurance Score Tier Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Physical Damage - Comprehensive</x:v>
+        <x:v>AB01</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB02</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB03</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8054</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB04</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8054</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB05</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8054</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB06</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8636</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB07</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB08</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0738</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB09</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1986</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2777</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3568</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3863</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3934</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4050</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4050</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4050</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4050</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>ABNA</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,10 +164,18 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Physical Damage - Specified Causes of Loss</x:v>
+        <x:v>ABNH</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>ABTF</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
